--- a/homework1/bar_graph.xlsx
+++ b/homework1/bar_graph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="157">
   <si>
     <t>Query1: Scott Abrams Marshall</t>
   </si>
@@ -144,6 +144,357 @@
   </si>
   <si>
     <t>Query 13</t>
+  </si>
+  <si>
+    <t>Relevant Results</t>
+  </si>
+  <si>
+    <t>Irrelevant Results</t>
+  </si>
+  <si>
+    <t>2.3, Google</t>
+  </si>
+  <si>
+    <t>2.3, Bing</t>
+  </si>
+  <si>
+    <t>2.4, Google</t>
+  </si>
+  <si>
+    <t>2.4, Bing</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/directory/sabrams-0</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/directory/sabrams</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/scott-abrams-2b1458</t>
+  </si>
+  <si>
+    <t>http://poetsandquantsforundergrads.com/2016/02/15/top-business-majors-name-their-favorite-professors/4/</t>
+  </si>
+  <si>
+    <t>https://us.sagepub.com/en-us/nam/author/scott-r-abrams</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/faculty/directory/sabrams</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/pub/dir/scott/abrams</t>
+  </si>
+  <si>
+    <t>http://students.marshall.usc.edu/cis/files/2012/05/SIF2017-Information_Session.pdf</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/directory/jbarcal</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/node/28488</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/USCLawCLE/posts/736566983051196</t>
+  </si>
+  <si>
+    <t>https://prezi.com/09m9mwxtyi9v/marshall/</t>
+  </si>
+  <si>
+    <t>http://www.zollalaw.com/wp-content/uploads/archive/pdf/events-usc-brochure.pdf</t>
+  </si>
+  <si>
+    <t>http://weblaw.usc.edu/why/academics/cle/te/assets/docs/TEC15%20Brochure.pdf</t>
+  </si>
+  <si>
+    <t>http://waatp.com/people/jack-barcal/47637469/</t>
+  </si>
+  <si>
+    <t>http://info.marshall.usc.edu/dept/marshallonline/Pages/News.aspx</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/directory/lindahagen</t>
+  </si>
+  <si>
+    <t>http://www.linda-hagen.com/uploads/4/6/8/3/46831813/hagen_cvjune2016.pdf</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/linda-hagen-29a4b68a</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/linda-hagen-b3401983</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/linda-hagen-9b172b1a</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/faculty/directory/lindahagen</t>
+  </si>
+  <si>
+    <t>http://www.linda-hagen.com/</t>
+  </si>
+  <si>
+    <t>https://msbfile03.usc.edu/digitalmeasures/ahagen/pci/Hagen_CVDec2016-1.pdf</t>
+  </si>
+  <si>
+    <t>https://msbfile03.usc.edu/digitalmeasures/ahagen/pci/Hagen%20Linda-1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/leventhal</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/undergrad/acct</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/leventhal/faculty</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/macc</t>
+  </si>
+  <si>
+    <t>http://www.marshall.edu/cob/accounting/</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/undergrad/acct</t>
+  </si>
+  <si>
+    <t>https://www.monster.com/jobs/q-accounting-jobs-l-marshall,-mn.aspx</t>
+  </si>
+  <si>
+    <t>http://accountingflorida.com/</t>
+  </si>
+  <si>
+    <t>http://www.marshallcpas.com/</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/marketing</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/marketing/faculty</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/Msmkt/overview</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/marketing/programs/msmkt</t>
+  </si>
+  <si>
+    <t>http://www.marshallmarketingusa.com/</t>
+  </si>
+  <si>
+    <t>http://www.yellowpages.com/marshall-mi/marketing</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/marketing/research</t>
+  </si>
+  <si>
+    <t>http://classic.marshall.usc.edu/marketing/about/about.htm</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/iom</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/iom/faculty</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/iom/contact</t>
+  </si>
+  <si>
+    <t>http://students.marshall.usc.edu/iom/</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/iom/curriculum</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/faculty/iom/about</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/faculty/iom</t>
+  </si>
+  <si>
+    <t>https://students.marshall.usc.edu/iom/contact-us/</t>
+  </si>
+  <si>
+    <t>http://web-app.usc.edu/ws/soc_archive/soc/term-20153/classes/dso/</t>
+  </si>
+  <si>
+    <t>http://www-marshall.usc.edu/marketing/maps-and-directions.htm</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/undergrad/buad/passion</t>
+  </si>
+  <si>
+    <t>http://hospitality.usc.edu/dining-map/</t>
+  </si>
+  <si>
+    <t>http://students.marshall.usc.edu/undergrad/advising/sample-course-plans/</t>
+  </si>
+  <si>
+    <t>http://web-app.usc.edu/maps/</t>
+  </si>
+  <si>
+    <t>http://classic.marshall.usc.edu/marketing/maps-and-directions.htm</t>
+  </si>
+  <si>
+    <t>http://students.marshall.usc.edu/undergrad/international-programs/iep/marshall-students-studying-abroad/marshall-google-map/</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/</t>
+  </si>
+  <si>
+    <t>http://stage.marshall.usc.edu/cmc/sitemap.htm</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gordon_S._Marshall</t>
+  </si>
+  <si>
+    <t>http://www.latimes.com/local/obituaries/la-me-0604-gordon-marshall-20150603-story.html</t>
+  </si>
+  <si>
+    <t>https://news.usc.edu/82292/usc-trustee-and-electronics-entrepreneur-gordon-s-marshall-95/</t>
+  </si>
+  <si>
+    <t>http://www.uclabruins.com/roster.aspx?rp_id=1250</t>
+  </si>
+  <si>
+    <t>http://www.pasadenastarnews.com/obituaries/20150604/usc-trustee-gordon-marshall-95-dies-in-pasadena</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gordon_Marshall_(sociologist)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gordon_Marshall_(footballer,_born_1964)</t>
+  </si>
+  <si>
+    <t>https://www.healthgrades.com/physician/dr-gordon-marshall-xwrdt</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/videos/happy-birthday-gordon-marshall</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/alumni</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/alumni/chapters/los_angeles</t>
+  </si>
+  <si>
+    <t>https://thenetwork.usc.edu/aboutmaa</t>
+  </si>
+  <si>
+    <t>http://classic.marshall.usc.edu/alumni/</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/USC_Marshall_School_of_Business</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/alumni</t>
+  </si>
+  <si>
+    <t>http://www-marshall.usc.edu/alumni/</t>
+  </si>
+  <si>
+    <t>http://thenetwork.usc.edu/alumni</t>
+  </si>
+  <si>
+    <t>https://alumni.usc.edu/campus/</t>
+  </si>
+  <si>
+    <t>https://thenetwork.usc.edu/</t>
+  </si>
+  <si>
+    <t>http://catalogue.usc.edu/preview_program.php?catoid=2&amp;poid=1038&amp;returnto=361</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/sites/default/files/PDF/ACCT-Major-Requirement-for-students-entering-usc-prior-to-fall-2013.pdf</t>
+  </si>
+  <si>
+    <t>http://catalogue.usc.edu/content.php?catoid=2&amp;navoid=1279</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/undergrad</t>
+  </si>
+  <si>
+    <t>http://undergrad.usc.edu/programs/progressive/</t>
+  </si>
+  <si>
+    <t>http://catalogue2014.usc.edu/schools/business/undergraduate/</t>
+  </si>
+  <si>
+    <t>http://catalogue.usc.edu/preview_program.php?catoid=2&amp;poid=1040&amp;returnto=361</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/macc/admissions</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/macc/academics/requirements</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/macc/academics</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/mbt/academics/requirements</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/macc/academics/requirements</t>
+  </si>
+  <si>
+    <t>http://www-marshall.usc.edu/leventhal/curriculum/macc/master-of-accounting-degree-requirements.htm</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/macc</t>
+  </si>
+  <si>
+    <t>http://www-marshall.usc.edu/leventhal/macc/master-of-accounting-degree-requirements.htm</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/phd/fields</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/phd/admissions</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/phd/admissions/application_requirements</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/phd/departments/accounting</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/faculty/leventhal/phd</t>
+  </si>
+  <si>
+    <t>https://gapp.usc.edu/graduate-programs/masters/industrial-systems-engineering/engineering-management</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/phd/fields/act</t>
+  </si>
+  <si>
+    <t>https://www.marshall.usc.edu/mbacareer/recruiters</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/MSMkt/career-resources</t>
+  </si>
+  <si>
+    <t>http://www.forbes.com/colleges/university-of-southern-california/marshall-school-of-business/</t>
+  </si>
+  <si>
+    <t>https://www.eventbrite.com/e/usc-marshall-alumni-san-diego-career-panel-the-labor-market-navigating-career-change-and-managing-tickets-31227326775</t>
+  </si>
+  <si>
+    <t>http://www.marshall.usc.edu/feeds/all</t>
+  </si>
+  <si>
+    <t>http://thenetwork.usc.edu/jobboard</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/usc-marshall-jobs</t>
+  </si>
+  <si>
+    <t>https://www.glassdoor.com/Reviews/USC-Marshall-Reviews-E498138.htm</t>
   </si>
 </sst>
 </file>
@@ -309,6 +660,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$4:$A$13</c:f>
@@ -349,7 +759,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$13</c:f>
+              <c:f>Sheet1!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -388,8 +798,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -397,11 +808,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1352448032"/>
-        <c:axId val="1352448576"/>
+        <c:axId val="-358673008"/>
+        <c:axId val="-358680624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1352448032"/>
+        <c:axId val="-358673008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1352448576"/>
+        <c:crossAx val="-358680624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -452,7 +863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1352448576"/>
+        <c:axId val="-358680624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1352448032"/>
+        <c:crossAx val="-358673008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -649,6 +1060,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$159:$A$168</c:f>
@@ -689,7 +1159,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$159:$B$168</c:f>
+              <c:f>Sheet1!$C$159:$C$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -728,8 +1198,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -737,11 +1208,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1530211680"/>
-        <c:axId val="1530213312"/>
+        <c:axId val="-149610960"/>
+        <c:axId val="-149618032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1530211680"/>
+        <c:axId val="-149610960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,7 +1255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1530213312"/>
+        <c:crossAx val="-149618032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -792,7 +1263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1530213312"/>
+        <c:axId val="-149618032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +1314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1530211680"/>
+        <c:crossAx val="-149610960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -985,6 +1456,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$177:$A$186</c:f>
@@ -1025,7 +1555,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$177:$B$186</c:f>
+              <c:f>Sheet1!$C$177:$C$186</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1064,8 +1594,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1073,11 +1604,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1448482656"/>
-        <c:axId val="1448478848"/>
+        <c:axId val="-149615312"/>
+        <c:axId val="-149619120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1448482656"/>
+        <c:axId val="-149615312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1448478848"/>
+        <c:crossAx val="-149619120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1128,7 +1659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1448478848"/>
+        <c:axId val="-149619120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1448482656"/>
+        <c:crossAx val="-149615312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1325,6 +1856,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$194:$A$203</c:f>
@@ -1365,7 +1955,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$194:$B$203</c:f>
+              <c:f>Sheet1!$C$194:$C$203</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1404,8 +1994,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1413,11 +2004,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1448483744"/>
-        <c:axId val="1530214944"/>
+        <c:axId val="-149625104"/>
+        <c:axId val="-149623472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1448483744"/>
+        <c:axId val="-149625104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1460,7 +2051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1530214944"/>
+        <c:crossAx val="-149623472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1468,7 +2059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1530214944"/>
+        <c:axId val="-149623472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,7 +2110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1448483744"/>
+        <c:crossAx val="-149625104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1665,6 +2256,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$212:$A$221</c:f>
@@ -1705,7 +2355,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$212:$B$221</c:f>
+              <c:f>Sheet1!$C$212:$C$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1744,8 +2394,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1753,11 +2404,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1447090992"/>
-        <c:axId val="1354175024"/>
+        <c:axId val="-149620208"/>
+        <c:axId val="-149618576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1447090992"/>
+        <c:axId val="-149620208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,7 +2451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1354175024"/>
+        <c:crossAx val="-149618576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1808,7 +2459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1354175024"/>
+        <c:axId val="-149618576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,7 +2510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1447090992"/>
+        <c:crossAx val="-149620208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2003,6 +2654,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$231:$A$243</c:f>
@@ -2100,8 +2810,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2109,11 +2820,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1438854672"/>
-        <c:axId val="1438857392"/>
+        <c:axId val="-149616944"/>
+        <c:axId val="-149615856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1438854672"/>
+        <c:axId val="-149616944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2867,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1438857392"/>
+        <c:crossAx val="-149615856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2164,7 +2875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1438857392"/>
+        <c:axId val="-149615856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1438854672"/>
+        <c:crossAx val="-149616944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2227,6 +2938,2230 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2.3, Google</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$248</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relevant Results</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$249:$A$257</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Query 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Query 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Query 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Query 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Query 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Query 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Query 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$249:$B$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$248</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Irrelevant Results</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$249:$A$257</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Query 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Query 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Query 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Query 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Query 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Query 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Query 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$249:$C$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-144652016"/>
+        <c:axId val="-144657456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-144652016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-144657456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-144657456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-144652016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2.3, Bing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$261</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relevant Results</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$262:$A$270</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Query 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Query 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Query 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Query 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Query 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Query 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Query 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$262:$B$270</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$261</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Irrelevant Results</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$262:$A$270</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Query 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Query 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Query 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Query 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Query 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Query 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Query 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Query 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Query 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$262:$C$270</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-145406496"/>
+        <c:axId val="-145415744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-145406496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-145415744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-145415744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-145406496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2.4, Google</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$276</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relevant Results</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$277:$A$279</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Query 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Query 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Query 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$277:$B$279</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$276</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Irrelevant Results</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$277:$A$279</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Query 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Query 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Query 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$277:$C$279</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-124282288"/>
+        <c:axId val="-124281744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-124282288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-124281744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-124281744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-124282288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2.4, Bing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$291</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relevant Results</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$292:$A$294</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Query 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Query 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Query 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$292:$B$294</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$291</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Irrelevant Results</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$292:$A$294</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Query 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Query 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Query 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$292:$C$294</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-149110256"/>
+        <c:axId val="-149104272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-149110256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-149104272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-149104272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-149110256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2361,6 +5296,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$22:$A$31</c:f>
@@ -2401,7 +5395,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$22:$B$31</c:f>
+              <c:f>Sheet1!$C$22:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2440,8 +5434,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2449,11 +5444,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1354175568"/>
-        <c:axId val="1354174480"/>
+        <c:axId val="-358684976"/>
+        <c:axId val="-358703552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1354175568"/>
+        <c:axId val="-358684976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +5491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1354174480"/>
+        <c:crossAx val="-358703552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2504,7 +5499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1354174480"/>
+        <c:axId val="-358703552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,7 +5550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1354175568"/>
+        <c:crossAx val="-358684976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2701,6 +5696,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$39:$A$48</c:f>
@@ -2741,7 +5795,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$39:$B$48</c:f>
+              <c:f>Sheet1!$C$39:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2780,8 +5834,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2789,11 +5844,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1447085008"/>
-        <c:axId val="1447089360"/>
+        <c:axId val="-358703008"/>
+        <c:axId val="-358700288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1447085008"/>
+        <c:axId val="-358703008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2836,7 +5891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1447089360"/>
+        <c:crossAx val="-358700288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2844,7 +5899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1447089360"/>
+        <c:axId val="-358700288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,7 +5950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1447085008"/>
+        <c:crossAx val="-358703008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3041,6 +6096,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$56:$A$65</c:f>
@@ -3081,7 +6195,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$56:$B$65</c:f>
+              <c:f>Sheet1!$C$56:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3120,8 +6234,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3129,11 +6244,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1447086640"/>
-        <c:axId val="1447086096"/>
+        <c:axId val="-358690496"/>
+        <c:axId val="-358704096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1447086640"/>
+        <c:axId val="-358690496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3176,7 +6291,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1447086096"/>
+        <c:crossAx val="-358704096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3184,7 +6299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1447086096"/>
+        <c:axId val="-358704096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3235,7 +6350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1447086640"/>
+        <c:crossAx val="-358690496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3377,6 +6492,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$74:$A$83</c:f>
@@ -3417,7 +6591,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$74:$B$83</c:f>
+              <c:f>Sheet1!$C$74:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3456,8 +6630,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3465,11 +6640,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1438859024"/>
-        <c:axId val="1438855760"/>
+        <c:axId val="-358689952"/>
+        <c:axId val="-358692128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1438859024"/>
+        <c:axId val="-358689952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3512,7 +6687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1438855760"/>
+        <c:crossAx val="-358692128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3520,7 +6695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1438855760"/>
+        <c:axId val="-358692128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3571,7 +6746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1438859024"/>
+        <c:crossAx val="-358689952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3717,6 +6892,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$90:$A$99</c:f>
@@ -3757,7 +6991,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$90:$B$99</c:f>
+              <c:f>Sheet1!$C$90:$C$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3796,8 +7030,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3805,11 +7040,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1349508368"/>
-        <c:axId val="1354178288"/>
+        <c:axId val="-358702464"/>
+        <c:axId val="-358700832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1349508368"/>
+        <c:axId val="-358702464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3852,7 +7087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1354178288"/>
+        <c:crossAx val="-358700832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3860,7 +7095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1354178288"/>
+        <c:axId val="-358700832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,7 +7146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1349508368"/>
+        <c:crossAx val="-358702464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4057,6 +7292,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$108:$A$117</c:f>
@@ -4097,7 +7391,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$108:$B$117</c:f>
+              <c:f>Sheet1!$C$108:$C$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4136,8 +7430,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4145,11 +7440,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1447090448"/>
-        <c:axId val="1352450752"/>
+        <c:axId val="-358697024"/>
+        <c:axId val="-358697568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1447090448"/>
+        <c:axId val="-358697024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4192,7 +7487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1352450752"/>
+        <c:crossAx val="-358697568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4200,7 +7495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1352450752"/>
+        <c:axId val="-358697568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4251,7 +7546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1447090448"/>
+        <c:crossAx val="-358697024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4397,6 +7692,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$126:$A$135</c:f>
@@ -4437,7 +7791,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$126:$B$135</c:f>
+              <c:f>Sheet1!$C$126:$C$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4476,8 +7830,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4485,11 +7840,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1352452928"/>
-        <c:axId val="1354178832"/>
+        <c:axId val="-358689408"/>
+        <c:axId val="-358695392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1352452928"/>
+        <c:axId val="-358689408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4532,7 +7887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1354178832"/>
+        <c:crossAx val="-358695392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4540,7 +7895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1354178832"/>
+        <c:axId val="-358695392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4591,7 +7946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1352452928"/>
+        <c:crossAx val="-358689408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4737,6 +8092,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$142:$A$151</c:f>
@@ -4777,7 +8191,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$142:$B$151</c:f>
+              <c:f>Sheet1!$C$142:$C$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4816,8 +8230,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4825,11 +8240,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1436317792"/>
-        <c:axId val="1436318880"/>
+        <c:axId val="-358693216"/>
+        <c:axId val="-360374752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1436317792"/>
+        <c:axId val="-358693216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4872,7 +8287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1436318880"/>
+        <c:crossAx val="-360374752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4880,7 +8295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1436318880"/>
+        <c:axId val="-360374752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4931,7 +8346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1436317792"/>
+        <c:crossAx val="-358693216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5181,6 +8596,166 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8558,7 +12133,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9061,7 +12636,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9564,7 +13139,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10067,7 +13642,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10570,7 +14145,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11073,7 +14648,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11576,7 +15151,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12079,7 +15654,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12582,20 +16157,2032 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12616,16 +18203,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12646,16 +18233,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12676,16 +18263,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12706,16 +18293,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12736,16 +18323,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12766,16 +18353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12796,16 +18383,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12826,16 +18413,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12856,16 +18443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12886,14 +18473,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>175</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>190</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -12916,16 +18503,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>192</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>207</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12946,16 +18533,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>210</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>225</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12999,6 +18586,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13270,17 +18977,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F247"/>
+  <dimension ref="A1:F294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="131.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13303,9 +19011,11 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -13314,7 +19024,10 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -13322,7 +19035,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -13330,7 +19046,10 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -13338,7 +19057,10 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.25</v>
       </c>
     </row>
@@ -13346,7 +19068,10 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -13354,7 +19079,10 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -13362,7 +19090,10 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -13370,7 +19101,10 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -13378,7 +19112,10 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.25</v>
       </c>
     </row>
@@ -13386,1135 +19123,1534 @@
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C117" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C126" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C127" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C128" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C129" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C130" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C131" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C132" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C133" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C134" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C135" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C142" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C143" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C144" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C145" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C146" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C147" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C148" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C149" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C150" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C151" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C159" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C160" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C161" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C162" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C163" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C164" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C165" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C166" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C167" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C168" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C177" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C178" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C179" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C180" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C181" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C182" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C183" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C184" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C185" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C186" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C194" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C195" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C196" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C197" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C198" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C199" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C200" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C201" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C202" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C203" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B210" s="2"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C212" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C213" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C214" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C215" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C216" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C217" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C218" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C219" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C220" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C221" s="1">
         <v>0.5</v>
       </c>
     </row>
@@ -14611,7 +20747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>37</v>
       </c>
@@ -14619,7 +20755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>38</v>
       </c>
@@ -14627,7 +20763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>39</v>
       </c>
@@ -14635,9 +20771,332 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="2">
-        <v>2.2999999999999998</v>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B249" s="1">
+        <v>4</v>
+      </c>
+      <c r="C249" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B250" s="1">
+        <v>5</v>
+      </c>
+      <c r="C250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B251" s="1">
+        <v>3</v>
+      </c>
+      <c r="C251" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B252" s="1">
+        <v>4</v>
+      </c>
+      <c r="C252" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B253" s="1">
+        <v>4</v>
+      </c>
+      <c r="C253" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B254" s="1">
+        <v>5</v>
+      </c>
+      <c r="C254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B255" s="1">
+        <v>1</v>
+      </c>
+      <c r="C255" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B256" s="1">
+        <v>4</v>
+      </c>
+      <c r="C256" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B257" s="1">
+        <v>5</v>
+      </c>
+      <c r="C257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B262" s="1">
+        <v>5</v>
+      </c>
+      <c r="C262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B263" s="1">
+        <v>4</v>
+      </c>
+      <c r="C263" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B264" s="1">
+        <v>4</v>
+      </c>
+      <c r="C264" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B265" s="1">
+        <v>2</v>
+      </c>
+      <c r="C265" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B266" s="1">
+        <v>3</v>
+      </c>
+      <c r="C266" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B267" s="1">
+        <v>5</v>
+      </c>
+      <c r="C267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B268" s="1">
+        <v>2</v>
+      </c>
+      <c r="C268" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B269" s="1">
+        <v>2</v>
+      </c>
+      <c r="C269" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B270" s="1">
+        <v>4</v>
+      </c>
+      <c r="C270" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B277" s="1">
+        <v>3</v>
+      </c>
+      <c r="C277" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B278" s="1">
+        <v>5</v>
+      </c>
+      <c r="C278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B279" s="1">
+        <v>1</v>
+      </c>
+      <c r="C279" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B292" s="1">
+        <v>2</v>
+      </c>
+      <c r="C292" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B293" s="1">
+        <v>4</v>
+      </c>
+      <c r="C293" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B294" s="1">
+        <v>0</v>
+      </c>
+      <c r="C294" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
